--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/MICHIGAN_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/MICHIGAN_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D978"/>
+  <dimension ref="A1:D972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C5">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C9">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C30">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="39">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C48">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C52">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C57">
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="82">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C85">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C86">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C91">
@@ -1782,14 +1782,14 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C107">
         <v>5</v>
       </c>
       <c r="D107">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="108">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2033,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="D125">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="126">
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="D127">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="128">
@@ -2148,14 +2148,14 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C134">
         <v>5</v>
       </c>
       <c r="D134">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="135">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C145">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C148">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C152">
@@ -2473,12 +2473,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C159">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C166">
@@ -2589,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="D167">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="168">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C170">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C172">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C175">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C179">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C186">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C190">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C197">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C203">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C210">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C219">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C225">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C235">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C238">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C240">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C243">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C245">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C249">
@@ -3673,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="D250">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="251">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C255">
@@ -3762,20 +3762,20 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C257">
         <v>5</v>
       </c>
       <c r="D257">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C258">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C263">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C266">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C270">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C273">
@@ -4035,20 +4035,20 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C278">
         <v>5</v>
       </c>
       <c r="D278">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C283">
@@ -4159,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="D287">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="288">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C301">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C304">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C311">
@@ -4521,14 +4521,14 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C315">
         <v>5</v>
       </c>
       <c r="D315">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="316">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C319">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C322">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C325">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C330">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C332">
@@ -4775,7 +4775,7 @@
         <v>5</v>
       </c>
       <c r="D334">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="335">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C342">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C348">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C350">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C358">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C367">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C370">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C373">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C375">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C379">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C384">
@@ -5456,13 +5456,13 @@
         <v>5</v>
       </c>
       <c r="D386">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C388">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C390">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C394">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C398">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C404">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C407">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C410">
@@ -5825,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="D414">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="415">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C429">
@@ -6449,7 +6449,7 @@
         <v>5</v>
       </c>
       <c r="D462">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="463">
@@ -6514,7 +6514,7 @@
         <v>5</v>
       </c>
       <c r="D467">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="468">
@@ -6566,7 +6566,7 @@
         <v>5</v>
       </c>
       <c r="D471">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="472">
@@ -6605,7 +6605,7 @@
         <v>5</v>
       </c>
       <c r="D474">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="475">
@@ -6650,14 +6650,14 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C478">
         <v>5</v>
       </c>
       <c r="D478">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="479">
@@ -6748,7 +6748,7 @@
         <v>5</v>
       </c>
       <c r="D485">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="486">
@@ -7006,7 +7006,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C505">
@@ -7078,7 +7078,7 @@
         <v>5</v>
       </c>
       <c r="D510">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="511">
@@ -7123,7 +7123,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C514">
@@ -7167,7 +7167,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C517">
@@ -7206,7 +7206,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C520">
@@ -7497,7 +7497,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C542">
@@ -7549,7 +7549,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C546">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C549">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C551">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C558">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C563">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C567">
@@ -8107,7 +8107,7 @@
         <v>5</v>
       </c>
       <c r="D588">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="589">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C600">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C603">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C615">
@@ -8510,7 +8510,7 @@
         <v>5</v>
       </c>
       <c r="D619">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="620">
@@ -8757,7 +8757,7 @@
         <v>5</v>
       </c>
       <c r="D638">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="639">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C641">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C652">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C655">
@@ -9113,7 +9113,7 @@
         <v>5</v>
       </c>
       <c r="D665">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="666">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C667">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C670">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C671">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C677">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C680">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C681">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C686">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C698">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C704">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C707">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C710">
@@ -9808,14 +9808,14 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C719">
         <v>5</v>
       </c>
       <c r="D719">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="720">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C728">
@@ -9956,7 +9956,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C730">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C733">
@@ -10008,7 +10008,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C734">
@@ -10047,14 +10047,14 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C737">
         <v>5</v>
       </c>
       <c r="D737">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="738">
@@ -10073,7 +10073,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C739">
@@ -10200,14 +10200,14 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C748">
         <v>5</v>
       </c>
       <c r="D748">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="749">
@@ -10246,7 +10246,7 @@
         <v>5</v>
       </c>
       <c r="D751">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="752">
@@ -10291,7 +10291,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C755">
@@ -10343,7 +10343,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C759">
@@ -10382,7 +10382,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C762">
@@ -10460,7 +10460,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C768">
@@ -10473,7 +10473,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C769">
@@ -10486,7 +10486,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C770">
@@ -10499,7 +10499,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C771">
@@ -10512,14 +10512,14 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C772">
         <v>5</v>
       </c>
       <c r="D772">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="773">
@@ -11260,7 +11260,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C828">
@@ -11369,7 +11369,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C836">
@@ -11395,7 +11395,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C838">
@@ -11595,7 +11595,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C853">
@@ -11615,7 +11615,7 @@
         <v>5</v>
       </c>
       <c r="D854">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="855">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C856">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C862">
@@ -11751,14 +11751,14 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C865">
         <v>5</v>
       </c>
       <c r="D865">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="866">
@@ -11868,7 +11868,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C874">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C875">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C883">
@@ -11998,14 +11998,14 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C884">
         <v>5</v>
       </c>
       <c r="D884">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="885">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C886">
@@ -12076,7 +12076,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C890">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C893">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C895">
@@ -12174,7 +12174,7 @@
         <v>5</v>
       </c>
       <c r="D897">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="898">
@@ -12278,7 +12278,7 @@
         <v>5</v>
       </c>
       <c r="D905">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="906">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C908">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C913">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C914">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C929">
@@ -12775,7 +12775,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C943">
@@ -12860,7 +12860,7 @@
         <v>5</v>
       </c>
       <c r="D949">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="950">
@@ -12931,7 +12931,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C955">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C956">
@@ -13048,14 +13048,14 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C964">
         <v>5</v>
       </c>
       <c r="D964">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="965">
@@ -13068,13 +13068,13 @@
         <v>5</v>
       </c>
       <c r="D965">
-        <v>0.0009718172983479105</v>
+        <v>0.0009718172983479104</v>
       </c>
     </row>
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C966">
@@ -13160,41 +13160,6 @@
       </c>
       <c r="D972">
         <v>1</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
